--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2822.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2822.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.175617156689309</v>
+        <v>0.990638256072998</v>
       </c>
       <c r="B1">
-        <v>2.439112688410674</v>
+        <v>2.312676906585693</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>5.051010608673096</v>
       </c>
       <c r="D1">
-        <v>2.363625308077656</v>
+        <v>2.474934339523315</v>
       </c>
       <c r="E1">
-        <v>1.234334269751714</v>
+        <v>1.369349956512451</v>
       </c>
     </row>
   </sheetData>
